--- a/test/expected/embed_image.xlsx
+++ b/test/expected/embed_image.xlsx
@@ -121,7 +121,7 @@
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
     <v>0</v>
-    <v>5</v>
+    <v>6</v>
   </rv>
 </rvData>
 </file>
